--- a/Banco Central/13/1/2/2/Operaciones financieras 2005 a 2021 - Mensual.xlsx
+++ b/Banco Central/13/1/2/2/Operaciones financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="222">
   <si>
     <t>Serie</t>
   </si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB198"/>
+  <dimension ref="A1:AB199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18068,6 +18071,92 @@
         <v>-3345162</v>
       </c>
     </row>
+    <row r="199" spans="1:28">
+      <c r="A199" t="s">
+        <v>221</v>
+      </c>
+      <c r="B199">
+        <v>-2171917</v>
+      </c>
+      <c r="C199">
+        <v>335069</v>
+      </c>
+      <c r="D199">
+        <v>454388</v>
+      </c>
+      <c r="E199">
+        <v>119320</v>
+      </c>
+      <c r="F199">
+        <v>-2520104</v>
+      </c>
+      <c r="G199">
+        <v>177635</v>
+      </c>
+      <c r="H199">
+        <v>2697739</v>
+      </c>
+      <c r="I199">
+        <v>-8866</v>
+      </c>
+      <c r="J199">
+        <v>21985</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>103795</v>
+      </c>
+      <c r="Q199">
+        <v>-11337</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <v>11337</v>
+      </c>
+      <c r="V199">
+        <v>143653</v>
+      </c>
+      <c r="W199">
+        <v>855689</v>
+      </c>
+      <c r="X199">
+        <v>855689</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>712036</v>
+      </c>
+      <c r="AA199">
+        <v>-28521</v>
+      </c>
+      <c r="AB199">
+        <v>-2275712</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
